--- a/reports/reports.xlsx
+++ b/reports/reports.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>nomeMarcador</t>
   </si>
@@ -56,181 +56,79 @@
     <t>obs</t>
   </si>
   <si>
-    <t>teste 2</t>
-  </si>
-  <si>
-    <t>teste 3</t>
-  </si>
-  <si>
-    <t>teste 6</t>
-  </si>
-  <si>
-    <t>teste 7</t>
-  </si>
-  <si>
-    <t>teste 8</t>
-  </si>
-  <si>
-    <t>teste 9</t>
-  </si>
-  <si>
-    <t>equipe 10</t>
-  </si>
-  <si>
-    <t>equipe 11</t>
-  </si>
-  <si>
-    <t>teste 12</t>
-  </si>
-  <si>
-    <t>equipe 13</t>
-  </si>
-  <si>
-    <t>teste 14</t>
-  </si>
-  <si>
-    <t>teste 16</t>
-  </si>
-  <si>
-    <t>ttete</t>
-  </si>
-  <si>
-    <t>teste33</t>
-  </si>
-  <si>
     <t>reer</t>
   </si>
   <si>
+    <t>teste</t>
+  </si>
+  <si>
     <t>reprodutivo</t>
   </si>
   <si>
+    <t>Tartaruga-cabeçuda (Caretta caretta)</t>
+  </si>
+  <si>
     <t>Tartaruga-oliva (Lepidochelys olivacea)</t>
   </si>
   <si>
+    <t>2022-11-23T22:22</t>
+  </si>
+  <si>
+    <t>2022-12-16T10:21</t>
+  </si>
+  <si>
+    <t>fgfg</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Escolha um local</t>
+  </si>
+  <si>
+    <t>2022-12-08T10:21</t>
+  </si>
+  <si>
+    <t>ocorrencia</t>
+  </si>
+  <si>
+    <t>provavelCausa</t>
+  </si>
+  <si>
+    <t>marcasVisiveis</t>
+  </si>
+  <si>
+    <t>comprimentoCasco</t>
+  </si>
+  <si>
+    <t>larguraCasco</t>
+  </si>
+  <si>
+    <t>erer</t>
+  </si>
+  <si>
+    <t>não-reprodutivo</t>
+  </si>
+  <si>
     <t>Tartaruga de couro (Dermochelys Coriacea)</t>
   </si>
   <si>
-    <t>Tartaruga-de-pente (Eretmochelys imbricata)</t>
-  </si>
-  <si>
-    <t>Tartaruga-cabeçuda (Caretta caretta)</t>
-  </si>
-  <si>
-    <t>2022-11-17T23:28</t>
-  </si>
-  <si>
-    <t>2022-11-21T20:35</t>
-  </si>
-  <si>
-    <t>2022-11-23T19:12</t>
-  </si>
-  <si>
-    <t>2022-11-23T19:26</t>
-  </si>
-  <si>
-    <t>2022-11-23T19:29</t>
-  </si>
-  <si>
-    <t>2022-11-09T19:32</t>
-  </si>
-  <si>
-    <t>2022-11-24T19:38</t>
-  </si>
-  <si>
-    <t>2022-11-23T21:40</t>
-  </si>
-  <si>
-    <t>2022-11-19T21:58</t>
-  </si>
-  <si>
-    <t>2022-11-24T22:06</t>
-  </si>
-  <si>
-    <t>2022-11-26T22:08</t>
-  </si>
-  <si>
-    <t>2022-11-23T22:10</t>
-  </si>
-  <si>
-    <t>2022-11-19T22:14</t>
-  </si>
-  <si>
-    <t>2022-11-12T22:20</t>
-  </si>
-  <si>
-    <t>2022-11-23T22:22</t>
-  </si>
-  <si>
-    <t>equipe 2</t>
-  </si>
-  <si>
-    <t>equipe 3</t>
-  </si>
-  <si>
-    <t>equipe 4</t>
-  </si>
-  <si>
-    <t>equipe 7</t>
-  </si>
-  <si>
-    <t>equipe 8</t>
-  </si>
-  <si>
-    <t>equipe 9</t>
-  </si>
-  <si>
-    <t>equipe 12</t>
-  </si>
-  <si>
-    <t>equipe 14</t>
-  </si>
-  <si>
-    <t>equipe 16</t>
-  </si>
-  <si>
-    <t>232323</t>
-  </si>
-  <si>
-    <t>wewewe</t>
-  </si>
-  <si>
-    <t>fgfg</t>
-  </si>
-  <si>
-    <t>ocorrencia</t>
-  </si>
-  <si>
-    <t>provavelCausa</t>
-  </si>
-  <si>
-    <t>marcasVisiveis</t>
-  </si>
-  <si>
-    <t>comprimentoCasco</t>
-  </si>
-  <si>
-    <t>larguraCasco</t>
-  </si>
-  <si>
-    <t>teste 5</t>
-  </si>
-  <si>
-    <t>não-reprodutivo</t>
-  </si>
-  <si>
-    <t>morte</t>
-  </si>
-  <si>
-    <t>canudo</t>
-  </si>
-  <si>
-    <t>não tem</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>10000</t>
+    <t>Encalhe</t>
+  </si>
+  <si>
+    <t>ewew</t>
+  </si>
+  <si>
+    <t>ewe</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>fdfd</t>
   </si>
 </sst>
 </file>
@@ -588,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,22 +538,22 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>-8.1258</v>
+        <v>-7.934</v>
       </c>
       <c r="H2">
-        <v>-35.0986</v>
+        <v>-34.8684</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -663,321 +561,28 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>-7.934</v>
+        <v>-8.366899999999999</v>
       </c>
       <c r="H3">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>-7.934</v>
-      </c>
-      <c r="H4">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5">
-        <v>-7.934</v>
-      </c>
-      <c r="H5">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6">
-        <v>-7.934</v>
-      </c>
-      <c r="H6">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7">
-        <v>-7.934</v>
-      </c>
-      <c r="H7">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>-7.934</v>
-      </c>
-      <c r="H8">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>-7.934</v>
-      </c>
-      <c r="H9">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10">
-        <v>-7.934</v>
-      </c>
-      <c r="H10">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11">
-        <v>-7.934</v>
-      </c>
-      <c r="H11">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+        <v>-35.228</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12">
-        <v>-7.934</v>
-      </c>
-      <c r="H12">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13">
-        <v>-7.934</v>
-      </c>
-      <c r="H13">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14">
-        <v>-7.934</v>
-      </c>
-      <c r="H14">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15">
-        <v>-7.934</v>
-      </c>
-      <c r="H15">
-        <v>-34.8684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>-7.934</v>
-      </c>
-      <c r="H16">
-        <v>-34.8684</v>
       </c>
     </row>
   </sheetData>
@@ -1010,19 +615,19 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>12</v>
@@ -1030,37 +635,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>-7.934</v>
+        <v>-8.366899999999999</v>
       </c>
       <c r="E2">
-        <v>-34.8684</v>
+        <v>-35.228</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
